--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hgf-Cd44.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H2">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J2">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N2">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O2">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P2">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q2">
-        <v>0.1186300316311111</v>
+        <v>8.434832529323778</v>
       </c>
       <c r="R2">
-        <v>1.06767028468</v>
+        <v>75.91349276391401</v>
       </c>
       <c r="S2">
-        <v>1.375896576860709E-06</v>
+        <v>6.803729659322928E-05</v>
       </c>
       <c r="T2">
-        <v>1.375896576860709E-06</v>
+        <v>6.803729659322926E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H3">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J3">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>502.283203</v>
       </c>
       <c r="O3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P3">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q3">
-        <v>1.899746692235556</v>
+        <v>32.30959026995411</v>
       </c>
       <c r="R3">
-        <v>17.09772023012</v>
+        <v>290.786312429587</v>
       </c>
       <c r="S3">
-        <v>2.203367001432935E-05</v>
+        <v>0.0002606165763647731</v>
       </c>
       <c r="T3">
-        <v>2.203367001432935E-05</v>
+        <v>0.0002606165763647731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H4">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J4">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N4">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P4">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q4">
-        <v>2.581317626373333</v>
+        <v>88.07189640219534</v>
       </c>
       <c r="R4">
-        <v>23.23185863735999</v>
+        <v>792.6470676197581</v>
       </c>
       <c r="S4">
-        <v>2.993867604251614E-05</v>
+        <v>0.0007104081457708231</v>
       </c>
       <c r="T4">
-        <v>2.993867604251614E-05</v>
+        <v>0.0007104081457708231</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H5">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J5">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N5">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P5">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q5">
-        <v>0.6298565643066667</v>
+        <v>21.93146264950189</v>
       </c>
       <c r="R5">
-        <v>5.66870907876</v>
+        <v>197.383163845517</v>
       </c>
       <c r="S5">
-        <v>7.305211663751394E-06</v>
+        <v>0.0001769042152075919</v>
       </c>
       <c r="T5">
-        <v>7.305211663751393E-06</v>
+        <v>0.0001769042152075919</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H6">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J6">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N6">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P6">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q6">
-        <v>7.554444320751111</v>
+        <v>144.7663247960583</v>
       </c>
       <c r="R6">
-        <v>67.98999888676001</v>
+        <v>1302.896923164525</v>
       </c>
       <c r="S6">
-        <v>8.761806717988247E-05</v>
+        <v>0.001167718427439936</v>
       </c>
       <c r="T6">
-        <v>8.761806717988247E-05</v>
+        <v>0.001167718427439936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01134666666666667</v>
+        <v>0.1929763333333333</v>
       </c>
       <c r="H7">
-        <v>0.03404</v>
+        <v>0.578929</v>
       </c>
       <c r="I7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="J7">
-        <v>0.0001677460580144518</v>
+        <v>0.002737222916811396</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N7">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P7">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q7">
-        <v>1.679097778315555</v>
+        <v>43.82943071845433</v>
       </c>
       <c r="R7">
-        <v>15.11188000484</v>
+        <v>394.464876466089</v>
       </c>
       <c r="S7">
-        <v>1.947453653711173E-05</v>
+        <v>0.0003535382554350421</v>
       </c>
       <c r="T7">
-        <v>1.947453653711173E-05</v>
+        <v>0.0003535382554350421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>15.758311</v>
       </c>
       <c r="I8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J8">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N8">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O8">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P8">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q8">
-        <v>54.91800623921522</v>
+        <v>229.5941544299918</v>
       </c>
       <c r="R8">
-        <v>494.262056152937</v>
+        <v>2066.347389869926</v>
       </c>
       <c r="S8">
-        <v>0.0006369508273209887</v>
+        <v>0.001851959185522486</v>
       </c>
       <c r="T8">
-        <v>0.0006369508273209887</v>
+        <v>0.001851959185522486</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>15.758311</v>
       </c>
       <c r="I9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J9">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>502.283203</v>
       </c>
       <c r="O9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P9">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q9">
         <v>879.4594358833482</v>
@@ -1013,10 +1013,10 @@
         <v>7915.134922950134</v>
       </c>
       <c r="S9">
-        <v>0.01020015935831893</v>
+        <v>0.00709392181443898</v>
       </c>
       <c r="T9">
-        <v>0.01020015935831893</v>
+        <v>0.00709392181443898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>15.758311</v>
       </c>
       <c r="I10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J10">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N10">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P10">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q10">
-        <v>1194.982548359952</v>
+        <v>2397.296272713192</v>
       </c>
       <c r="R10">
-        <v>10754.84293523957</v>
+        <v>21575.66645441872</v>
       </c>
       <c r="S10">
-        <v>0.01385966415999467</v>
+        <v>0.01933714237495438</v>
       </c>
       <c r="T10">
-        <v>0.01385966415999467</v>
+        <v>0.01933714237495438</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>15.758311</v>
       </c>
       <c r="I11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J11">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N11">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P11">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q11">
-        <v>291.5827152096344</v>
+        <v>596.9692468605559</v>
       </c>
       <c r="R11">
-        <v>2624.244436886709</v>
+        <v>5372.723221745004</v>
       </c>
       <c r="S11">
-        <v>0.003381838934142829</v>
+        <v>0.004815291064106587</v>
       </c>
       <c r="T11">
-        <v>0.003381838934142828</v>
+        <v>0.004815291064106587</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>15.758311</v>
       </c>
       <c r="I12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J12">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N12">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P12">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q12">
-        <v>3497.217480569323</v>
+        <v>3940.505257921608</v>
       </c>
       <c r="R12">
-        <v>31474.95732512391</v>
+        <v>35464.54732129448</v>
       </c>
       <c r="S12">
-        <v>0.04056147919622447</v>
+        <v>0.0317850205120653</v>
       </c>
       <c r="T12">
-        <v>0.04056147919622447</v>
+        <v>0.0317850205120653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>15.758311</v>
       </c>
       <c r="I13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="J13">
-        <v>0.07765553910739642</v>
+        <v>0.07450656297998735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N13">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P13">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q13">
-        <v>777.3133075824201</v>
+        <v>1193.026779128972</v>
       </c>
       <c r="R13">
-        <v>6995.81976824178</v>
+        <v>10737.24101216075</v>
       </c>
       <c r="S13">
-        <v>0.009015446631394529</v>
+        <v>0.009623228028899629</v>
       </c>
       <c r="T13">
-        <v>0.009015446631394529</v>
+        <v>0.009623228028899629</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H14">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J14">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N14">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O14">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P14">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q14">
-        <v>210.0850699872903</v>
+        <v>691.5445613732362</v>
       </c>
       <c r="R14">
-        <v>1890.765629885613</v>
+        <v>6223.901052359126</v>
       </c>
       <c r="S14">
-        <v>0.00243661174721671</v>
+        <v>0.005578157274138269</v>
       </c>
       <c r="T14">
-        <v>0.00243661174721671</v>
+        <v>0.005578157274138267</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H15">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J15">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>502.283203</v>
       </c>
       <c r="O15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P15">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q15">
-        <v>3364.311813027979</v>
+        <v>2648.958512656526</v>
       </c>
       <c r="R15">
-        <v>30278.80631725182</v>
+        <v>23840.62661390873</v>
       </c>
       <c r="S15">
-        <v>0.03902001072908158</v>
+        <v>0.02136710780708535</v>
       </c>
       <c r="T15">
-        <v>0.03902001072908158</v>
+        <v>0.02136710780708535</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H16">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J16">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N16">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P16">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q16">
-        <v>4571.323860743612</v>
+        <v>7220.729131850125</v>
       </c>
       <c r="R16">
-        <v>41141.91474669251</v>
+        <v>64986.56218665113</v>
       </c>
       <c r="S16">
-        <v>0.05301919560535066</v>
+        <v>0.05824405971963546</v>
       </c>
       <c r="T16">
-        <v>0.05301919560535066</v>
+        <v>0.05824405971963545</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H17">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J17">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N17">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P17">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q17">
-        <v>1115.429698322849</v>
+        <v>1798.089489684178</v>
       </c>
       <c r="R17">
-        <v>10038.86728490564</v>
+        <v>16182.8054071576</v>
       </c>
       <c r="S17">
-        <v>0.01293699312517672</v>
+        <v>0.01450380283016935</v>
       </c>
       <c r="T17">
-        <v>0.01293699312517672</v>
+        <v>0.01450380283016935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H18">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J18">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N18">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P18">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q18">
-        <v>13378.36584900538</v>
+        <v>11868.92143200994</v>
       </c>
       <c r="R18">
-        <v>120405.2926410484</v>
+        <v>106820.2928880895</v>
       </c>
       <c r="S18">
-        <v>0.1551651594671695</v>
+        <v>0.09573744646429105</v>
       </c>
       <c r="T18">
-        <v>0.1551651594671695</v>
+        <v>0.09573744646429104</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.094113</v>
+        <v>15.82150366666667</v>
       </c>
       <c r="H19">
-        <v>60.28233899999999</v>
+        <v>47.464511</v>
       </c>
       <c r="I19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="J19">
-        <v>0.2970659440405655</v>
+        <v>0.2244160289853273</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N19">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P19">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q19">
-        <v>2973.558798077707</v>
+        <v>3593.432867346105</v>
       </c>
       <c r="R19">
-        <v>26762.02918269936</v>
+        <v>32340.89580611495</v>
       </c>
       <c r="S19">
-        <v>0.03448797336657038</v>
+        <v>0.02898545489000787</v>
       </c>
       <c r="T19">
-        <v>0.03448797336657038</v>
+        <v>0.02898545489000786</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H20">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I20">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J20">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N20">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O20">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P20">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q20">
-        <v>12.50713914273445</v>
+        <v>5.880688037420444</v>
       </c>
       <c r="R20">
-        <v>112.56425228461</v>
+        <v>52.926192336784</v>
       </c>
       <c r="S20">
-        <v>0.0001450604850744718</v>
+        <v>4.743498045554044E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001450604850744717</v>
+        <v>4.743498045554043E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H21">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I21">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J21">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>502.283203</v>
       </c>
       <c r="O21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P21">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q21">
-        <v>200.2898919358323</v>
+        <v>22.52595061418578</v>
       </c>
       <c r="R21">
-        <v>1802.60902742249</v>
+        <v>202.733555527672</v>
       </c>
       <c r="S21">
-        <v>0.002323005169140001</v>
+        <v>0.0001816994916797313</v>
       </c>
       <c r="T21">
-        <v>0.002323005169140001</v>
+        <v>0.0001816994916797313</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H22">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I22">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J22">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N22">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P22">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q22">
-        <v>272.1477713589134</v>
+        <v>61.40292007040533</v>
       </c>
       <c r="R22">
-        <v>2449.32994223022</v>
+        <v>552.626280633648</v>
       </c>
       <c r="S22">
-        <v>0.003156428282657557</v>
+        <v>0.0004952900570339414</v>
       </c>
       <c r="T22">
-        <v>0.003156428282657556</v>
+        <v>0.0004952900570339414</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H23">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I23">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J23">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N23">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P23">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q23">
-        <v>66.40564435019668</v>
+        <v>15.29041502575022</v>
       </c>
       <c r="R23">
-        <v>597.6507991517701</v>
+        <v>137.613735231752</v>
       </c>
       <c r="S23">
-        <v>0.0007701869205411552</v>
+        <v>0.0001233359996803564</v>
       </c>
       <c r="T23">
-        <v>0.0007701869205411549</v>
+        <v>0.0001233359996803564</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H24">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I24">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J24">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N24">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P24">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q24">
-        <v>796.4634668519747</v>
+        <v>100.9297566359333</v>
       </c>
       <c r="R24">
-        <v>7168.171201667771</v>
+        <v>908.3678097233999</v>
       </c>
       <c r="S24">
-        <v>0.009237554290163857</v>
+        <v>0.0008141225997609668</v>
       </c>
       <c r="T24">
-        <v>0.009237554290163855</v>
+        <v>0.0008141225997609668</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.196276666666667</v>
+        <v>0.1345413333333333</v>
       </c>
       <c r="H25">
-        <v>3.588830000000001</v>
+        <v>0.403624</v>
       </c>
       <c r="I25">
-        <v>0.01768543141551132</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="J25">
-        <v>0.01768543141551131</v>
+        <v>0.001908366764447942</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N25">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P25">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q25">
-        <v>177.0269236119922</v>
+        <v>30.55747793650933</v>
       </c>
       <c r="R25">
-        <v>1593.24231250793</v>
+        <v>275.017301428584</v>
       </c>
       <c r="S25">
-        <v>0.002053196267934275</v>
+        <v>0.0002464836358374056</v>
       </c>
       <c r="T25">
-        <v>0.002053196267934275</v>
+        <v>0.0002464836358374056</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H26">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I26">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J26">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N26">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O26">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P26">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q26">
-        <v>161.3829254186712</v>
+        <v>876.0492544839049</v>
       </c>
       <c r="R26">
-        <v>1452.446328768041</v>
+        <v>7884.443290355144</v>
       </c>
       <c r="S26">
-        <v>0.001871753818103885</v>
+        <v>0.007066414507980432</v>
       </c>
       <c r="T26">
-        <v>0.001871753818103885</v>
+        <v>0.007066414507980431</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H27">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I27">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J27">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>502.283203</v>
       </c>
       <c r="O27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P27">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q27">
-        <v>2584.393467084053</v>
+        <v>3355.702957974784</v>
       </c>
       <c r="R27">
-        <v>23259.54120375647</v>
+        <v>30201.32662177305</v>
       </c>
       <c r="S27">
-        <v>0.02997435030346559</v>
+        <v>0.02706787083641257</v>
       </c>
       <c r="T27">
-        <v>0.02997435030346558</v>
+        <v>0.02706787083641257</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H28">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I28">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J28">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N28">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P28">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q28">
-        <v>3511.594696984465</v>
+        <v>9147.225972287619</v>
       </c>
       <c r="R28">
-        <v>31604.35227286018</v>
+        <v>82325.03375058857</v>
       </c>
       <c r="S28">
-        <v>0.04072822923901204</v>
+        <v>0.07378362573509409</v>
       </c>
       <c r="T28">
-        <v>0.04072822923901204</v>
+        <v>0.07378362573509409</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H29">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I29">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J29">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N29">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P29">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q29">
-        <v>856.8495982370266</v>
+        <v>2277.821336350592</v>
       </c>
       <c r="R29">
-        <v>7711.646384133239</v>
+        <v>20500.39202715533</v>
       </c>
       <c r="S29">
-        <v>0.009937925606938966</v>
+        <v>0.01837343009584277</v>
       </c>
       <c r="T29">
-        <v>0.009937925606938963</v>
+        <v>0.01837343009584277</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H30">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I30">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J30">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N30">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P30">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q30">
-        <v>10276.97883607032</v>
+        <v>15035.56003881077</v>
       </c>
       <c r="R30">
-        <v>92492.80952463286</v>
+        <v>135320.0403492969</v>
       </c>
       <c r="S30">
-        <v>0.11919460701982</v>
+        <v>0.121280280817607</v>
       </c>
       <c r="T30">
-        <v>0.11919460701982</v>
+        <v>0.121280280817607</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>15.43587433333334</v>
+        <v>20.04269466666667</v>
       </c>
       <c r="H31">
-        <v>46.30762300000001</v>
+        <v>60.128084</v>
       </c>
       <c r="I31">
-        <v>0.2281998006542117</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="J31">
-        <v>0.2281998006542116</v>
+        <v>0.2842904215694163</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N31">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P31">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q31">
-        <v>2284.225232032148</v>
+        <v>4552.163895592383</v>
       </c>
       <c r="R31">
-        <v>20558.02708828933</v>
+        <v>40969.47506033145</v>
       </c>
       <c r="S31">
-        <v>0.02649293466687121</v>
+        <v>0.03671879957647944</v>
       </c>
       <c r="T31">
-        <v>0.0264929346668712</v>
+        <v>0.03671879957647944</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H32">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J32">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.45505566666667</v>
+        <v>43.70915533333334</v>
       </c>
       <c r="N32">
-        <v>31.365167</v>
+        <v>131.127466</v>
       </c>
       <c r="O32">
-        <v>0.008202258778219226</v>
+        <v>0.0248563228721197</v>
       </c>
       <c r="P32">
-        <v>0.008202258778219226</v>
+        <v>0.02485632287211969</v>
       </c>
       <c r="Q32">
-        <v>268.1883448510792</v>
+        <v>1270.025776462633</v>
       </c>
       <c r="R32">
-        <v>2413.695103659713</v>
+        <v>11430.23198816369</v>
       </c>
       <c r="S32">
-        <v>0.003110506003926311</v>
+        <v>0.01024431962742974</v>
       </c>
       <c r="T32">
-        <v>0.003110506003926311</v>
+        <v>0.01024431962742974</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H33">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J33">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>502.283203</v>
       </c>
       <c r="O33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="P33">
-        <v>0.1313513430666197</v>
+        <v>0.09521203945945574</v>
       </c>
       <c r="Q33">
-        <v>4294.780284736525</v>
+        <v>4864.828356358332</v>
       </c>
       <c r="R33">
-        <v>38653.02256262872</v>
+        <v>43783.45520722499</v>
       </c>
       <c r="S33">
-        <v>0.0498117838365993</v>
+        <v>0.03924082293347434</v>
       </c>
       <c r="T33">
-        <v>0.0498117838365993</v>
+        <v>0.03924082293347434</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H34">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J34">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>227.495678</v>
+        <v>456.387034</v>
       </c>
       <c r="N34">
-        <v>682.4870339999999</v>
+        <v>1369.161102</v>
       </c>
       <c r="O34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="P34">
-        <v>0.1784761823728629</v>
+        <v>0.259536094560534</v>
       </c>
       <c r="Q34">
-        <v>5835.61592485008</v>
+        <v>13260.91279511177</v>
       </c>
       <c r="R34">
-        <v>52520.54332365072</v>
+        <v>119348.2151560059</v>
       </c>
       <c r="S34">
-        <v>0.06768272640980548</v>
+        <v>0.1069655685280453</v>
       </c>
       <c r="T34">
-        <v>0.06768272640980548</v>
+        <v>0.1069655685280453</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H35">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J35">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.51027300000001</v>
+        <v>113.6484576666667</v>
       </c>
       <c r="N35">
-        <v>166.530819</v>
+        <v>340.945373</v>
       </c>
       <c r="O35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="P35">
-        <v>0.04354923001005501</v>
+        <v>0.06462908596924523</v>
       </c>
       <c r="Q35">
-        <v>1423.924339835482</v>
+        <v>3302.202240952836</v>
       </c>
       <c r="R35">
-        <v>12815.31905851934</v>
+        <v>29719.82016857553</v>
       </c>
       <c r="S35">
-        <v>0.0165149802115916</v>
+        <v>0.02663632176423858</v>
       </c>
       <c r="T35">
-        <v>0.01651498021159159</v>
+        <v>0.02663632176423858</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H36">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J36">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>665.7853396666667</v>
+        <v>750.176575</v>
       </c>
       <c r="N36">
-        <v>1997.356019</v>
+        <v>2250.529725</v>
       </c>
       <c r="O36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="P36">
-        <v>0.522325640417338</v>
+        <v>0.4266069892474147</v>
       </c>
       <c r="Q36">
-        <v>17078.42348851357</v>
+        <v>21797.34611393588</v>
       </c>
       <c r="R36">
-        <v>153705.8113966222</v>
+        <v>196176.1150254229</v>
       </c>
       <c r="S36">
-        <v>0.1980792223767804</v>
+        <v>0.1758224004262506</v>
       </c>
       <c r="T36">
-        <v>0.1980792223767804</v>
+        <v>0.1758224004262506</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>25.65154633333333</v>
+        <v>29.05628733333333</v>
       </c>
       <c r="H37">
-        <v>76.954639</v>
+        <v>87.168862</v>
       </c>
       <c r="I37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="J37">
-        <v>0.3792255387243007</v>
+        <v>0.4121413967840098</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>147.9815903333333</v>
+        <v>227.123347</v>
       </c>
       <c r="N37">
-        <v>443.9447709999999</v>
+        <v>681.370041</v>
       </c>
       <c r="O37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="P37">
-        <v>0.1160953453549051</v>
+        <v>0.1291594678912306</v>
       </c>
       <c r="Q37">
-        <v>3795.956620915852</v>
+        <v>6599.361230540371</v>
       </c>
       <c r="R37">
-        <v>34163.60958824267</v>
+        <v>59394.25107486334</v>
       </c>
       <c r="S37">
-        <v>0.04402631988559764</v>
+        <v>0.05323196350457125</v>
       </c>
       <c r="T37">
-        <v>0.04402631988559764</v>
+        <v>0.05323196350457125</v>
       </c>
     </row>
   </sheetData>
